--- a/testdata/Payments.xlsx
+++ b/testdata/Payments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="570" windowWidth="15600" windowHeight="7575" tabRatio="926" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="630" windowWidth="15600" windowHeight="7515" tabRatio="926" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Payments_VTAuth" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="352">
   <si>
     <t>Row Number</t>
   </si>
@@ -228,9 +228,6 @@
     <t>xpath:://button[text()='Print Receipt']</t>
   </si>
   <si>
-    <t>4444333322221111</t>
-  </si>
-  <si>
     <t>Suman</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t>10.10</t>
   </si>
   <si>
-    <t>5499740000000057</t>
-  </si>
-  <si>
     <t>998</t>
   </si>
   <si>
@@ -639,12 +633,6 @@
     <t>id::authCode</t>
   </si>
   <si>
-    <t>text::FORCE_CAPTURE</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='customer_recipt']/table/tbody/tr[*]/td[text()='FORCE_CAPTURE']</t>
-  </si>
-  <si>
     <t>lnkACHReports</t>
   </si>
   <si>
@@ -720,15 +708,9 @@
     <t>txtMerchantField2</t>
   </si>
   <si>
-    <t>9339714385</t>
-  </si>
-  <si>
     <t>011000015</t>
   </si>
   <si>
-    <t>787874545454</t>
-  </si>
-  <si>
     <t>2902</t>
   </si>
   <si>
@@ -873,21 +855,12 @@
     <t>verifyTax</t>
   </si>
   <si>
-    <t>xpath:://div[@id='customer_recipt']/table/tbody/tr[*]/td[text()='Tax']/../td[2]</t>
-  </si>
-  <si>
     <t>verifyTip</t>
   </si>
   <si>
-    <t>xpath:://div[@id='customer_recipt']/table/tbody/tr[*]/td[text()='Tip']/../td[2]</t>
-  </si>
-  <si>
     <t>verifyTotal</t>
   </si>
   <si>
-    <t>xpath:://div[@id='customer_recipt']/table/tbody/tr[*]/td[text()='Total']/../td[2]</t>
-  </si>
-  <si>
     <t>text::$0</t>
   </si>
   <si>
@@ -927,9 +900,6 @@
     <t>135.79</t>
   </si>
   <si>
-    <t>xpath:://div[@id='customer_recipt']/table/tbody/tr[*]/td[text()='CAPTURE_ONLY']</t>
-  </si>
-  <si>
     <t>xpath:://div[@id='customer_recipt']/table/tbody/tr[*]/td[text()='ADJUST']</t>
   </si>
   <si>
@@ -993,9 +963,6 @@
     <t>text::CREATED</t>
   </si>
   <si>
-    <t>text::ARC</t>
-  </si>
-  <si>
     <t>text::WEB</t>
   </si>
   <si>
@@ -1014,63 +981,15 @@
     <t>id::virtualTerminalForceCapture</t>
   </si>
   <si>
-    <t>4099909958293016</t>
-  </si>
-  <si>
-    <t>5195189560312002</t>
-  </si>
-  <si>
-    <t>8884786398000635</t>
-  </si>
-  <si>
     <t>text::REFUND</t>
   </si>
   <si>
-    <t>xpath:://td[text()=' Decription of purchase ']/../td[2]</t>
-  </si>
-  <si>
-    <t>xpath:://td[text()='Total']/../td[2]</t>
-  </si>
-  <si>
-    <t>xpath:://td[text()='Transaction ID']/../td[2]</t>
-  </si>
-  <si>
     <t>xpath:://td[text()='Transaction Amount']/../td[2]</t>
   </si>
   <si>
     <t>text::$100.00</t>
   </si>
   <si>
-    <t>text::CS59175825437846786</t>
-  </si>
-  <si>
-    <t>text::CS14100632973882537</t>
-  </si>
-  <si>
-    <t>text::CS84017250621614581</t>
-  </si>
-  <si>
-    <t>text::AS48392845130639339</t>
-  </si>
-  <si>
-    <t>CS14857574341420824</t>
-  </si>
-  <si>
-    <t>valueattribute::CS14857574341420824</t>
-  </si>
-  <si>
-    <t>text::CS14857574341420824</t>
-  </si>
-  <si>
-    <t>text::CS93573532998691831</t>
-  </si>
-  <si>
-    <t>CS42950865528755904</t>
-  </si>
-  <si>
-    <t>text::CS42950865528755904</t>
-  </si>
-  <si>
     <t>xpath:://button[text()='Download Customer Receipt']</t>
   </si>
   <si>
@@ -1083,23 +1002,91 @@
     <t>btnDownloadMerchantReceipt</t>
   </si>
   <si>
-    <t>text::CS42016873315996904</t>
-  </si>
-  <si>
-    <t>CS42016873315996904</t>
-  </si>
-  <si>
-    <t>text::CS49581419345848627</t>
-  </si>
-  <si>
-    <t>CS49581419345848627</t>
+    <t>text::CAPTURE</t>
+  </si>
+  <si>
+    <t>xpath:://div[@id='customer_recipt']/table/tbody/tr[*]/td[text()='CAPTURE']</t>
+  </si>
+  <si>
+    <t>4929999832440567</t>
+  </si>
+  <si>
+    <t>5171422863865554</t>
+  </si>
+  <si>
+    <t>5140776277131494</t>
+  </si>
+  <si>
+    <t>5954806422317864</t>
+  </si>
+  <si>
+    <t>011000028389939</t>
+  </si>
+  <si>
+    <t>Edgepay</t>
+  </si>
+  <si>
+    <t>9971315900762766</t>
+  </si>
+  <si>
+    <t>text::CS90435014733639553</t>
+  </si>
+  <si>
+    <t>text::CS91540458434646785</t>
+  </si>
+  <si>
+    <t>text::CCD</t>
+  </si>
+  <si>
+    <t>text::CS74793763657265981</t>
+  </si>
+  <si>
+    <t>text::AS16821527112980517</t>
+  </si>
+  <si>
+    <t>text::CS55286859952050473</t>
+  </si>
+  <si>
+    <t>CS84947682647382876</t>
+  </si>
+  <si>
+    <t>valueattribute::CS84947682647382876</t>
+  </si>
+  <si>
+    <t>text::CS84947682647382876</t>
+  </si>
+  <si>
+    <t>CS10885034827738131</t>
+  </si>
+  <si>
+    <t>text::CS10885034827738131</t>
+  </si>
+  <si>
+    <t>xpath:://div[@id='customer_recipt']/table/tbody/tr[*]/td[contains(text(),'Tax')]/../td[2]</t>
+  </si>
+  <si>
+    <t>xpath:://div[@id='customer_recipt']/table/tbody/tr[*]/td[contains(text(),'Tip')]/../td[2]</t>
+  </si>
+  <si>
+    <t>xpath:://div[@id='customer_recipt']/table/tbody/tr[*]/td[contains(text(),'Total')]/../td[2]</t>
+  </si>
+  <si>
+    <t>xpath:://td[text()='Edgepay Transaction ID']/../td[2]</t>
+  </si>
+  <si>
+    <t>xpath:://td[contains(text(),'Total')]/../td[2]</t>
+  </si>
+  <si>
+    <t>xpath:://td[contains(text(),'Description of purchase')]/../td[2]</t>
+  </si>
+  <si>
+    <t>xpath:://td[text()='Status']/../td[2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1201,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1214,6 +1201,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1517,38 +1514,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH38"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
-    </sheetView>
+    <sheetView topLeftCell="AG1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="59.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="15" max="16" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="20" max="22" width="19.5703125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="31" max="32" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="66.7109375" collapsed="true"/>
+    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="22" width="19.5703125" collapsed="1"/>
+    <col min="26" max="26" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -1637,7 +1632,7 @@
         <v>30</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD1" s="6" t="s">
         <v>57</v>
@@ -1652,7 +1647,7 @@
         <v>62</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -1667,7 +1662,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
@@ -1739,7 +1734,7 @@
         <v>55</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>56</v>
@@ -1754,7 +1749,7 @@
         <v>65</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -1960,7 +1955,7 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>1</v>
@@ -1976,34 +1971,34 @@
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="V8" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="W8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="Y8" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>1</v>
@@ -2196,19 +2191,19 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AF13" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="AG13" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -2226,7 +2221,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>1</v>
@@ -2242,7 +2237,7 @@
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="7" t="s">
-        <v>114</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>1</v>
@@ -2254,22 +2249,22 @@
         <v>1</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="X14" s="7" t="s">
+      <c r="Y14" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>1</v>
@@ -2334,7 +2329,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>1</v>
@@ -2357,19 +2352,19 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="V16" s="7" t="s">
+      <c r="W16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="X16" s="7" t="s">
+      <c r="Y16" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="Z16" s="3" t="s">
         <v>1</v>
@@ -2434,7 +2429,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>1</v>
@@ -2457,19 +2452,19 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="X18" s="7" t="s">
+      <c r="Y18" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>1</v>
@@ -3066,43 +3061,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="49.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="49.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="21" max="23" width="19.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="32" max="33" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="23" width="19.5703125" collapsed="1"/>
+    <col min="27" max="27" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -3116,10 +3111,10 @@
         <v>64</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>2</v>
@@ -3163,16 +3158,16 @@
         <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4502,41 +4497,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="21" max="23" width="19.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="32" max="33" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="23" width="19.5703125" collapsed="1"/>
+    <col min="27" max="27" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -4544,37 +4537,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -4606,37 +4599,37 @@
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -4801,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="7"/>
@@ -5099,7 +5092,7 @@
         <v>text::150.00</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -5187,7 +5180,7 @@
         <v>text::150.00</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -5271,10 +5264,10 @@
         <v>text::CS68805842450359196</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -5358,10 +5351,10 @@
         <v>text::CS68805842450359196</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -5449,7 +5442,7 @@
         <v>text::150.00</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -5537,7 +5530,7 @@
         <v>text::100.00</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -5625,10 +5618,10 @@
         <v>text::150.00</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -5715,10 +5708,10 @@
         <v>text::150.00</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -6035,44 +6028,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
-    </sheetView>
+    <sheetView topLeftCell="AK1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="59.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="15" max="16" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="20" max="22" width="19.5703125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="62.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="37" max="38" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="66.7109375" collapsed="true"/>
+    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="22" width="19.5703125" collapsed="1"/>
+    <col min="26" max="26" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="62.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="38" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -6083,7 +6074,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>23</v>
@@ -6158,28 +6149,28 @@
         <v>31</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="AC1" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="AE1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="AH1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>57</v>
@@ -6194,7 +6185,7 @@
         <v>62</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -6203,13 +6194,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
@@ -6278,28 +6269,28 @@
         <v>54</v>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="AF2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>56</v>
@@ -6314,7 +6305,7 @@
         <v>65</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -6550,7 +6541,7 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>1</v>
@@ -6565,35 +6556,36 @@
         <v>1</v>
       </c>
       <c r="O8" s="3"/>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="7" t="str">
+        <f>Payments_VTAuth!P8</f>
+        <v>4929999832440567</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="V8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="W8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="Y8" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>1</v>
@@ -6612,10 +6604,10 @@
         <v>1</v>
       </c>
       <c r="AF8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG8" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
@@ -6832,19 +6824,19 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AL13" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="AM13" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AN13" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
@@ -6862,7 +6854,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>1</v>
@@ -6877,8 +6869,9 @@
         <v>1</v>
       </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="7" t="s">
-        <v>114</v>
+      <c r="P14" s="7" t="str">
+        <f>Payments_VTAuth!P14</f>
+        <v>5171422863865554</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>1</v>
@@ -6890,22 +6883,22 @@
         <v>1</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="X14" s="7" t="s">
+      <c r="Y14" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>1</v>
@@ -6924,10 +6917,10 @@
         <v>1</v>
       </c>
       <c r="AF14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG14" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
@@ -6992,7 +6985,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>1</v>
@@ -7008,7 +7001,7 @@
       </c>
       <c r="O16" s="7" t="str">
         <f>Payments_VTAuth!O16</f>
-        <v>4099909958293016</v>
+        <v>5140776277131494</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -7016,19 +7009,19 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="V16" s="7" t="s">
+      <c r="W16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="X16" s="7" t="s">
+      <c r="Y16" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="Z16" s="3" t="s">
         <v>1</v>
@@ -7047,10 +7040,10 @@
         <v>1</v>
       </c>
       <c r="AF16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG16" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
@@ -7115,7 +7108,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>1</v>
@@ -7131,7 +7124,7 @@
       </c>
       <c r="O18" s="7" t="str">
         <f>Payments_VTAuth!O18</f>
-        <v>5195189560312002</v>
+        <v>5954806422317864</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -7139,19 +7132,19 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="X18" s="7" t="s">
+      <c r="Y18" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>1</v>
@@ -7170,10 +7163,10 @@
         <v>1</v>
       </c>
       <c r="AF18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG18" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
@@ -7832,33 +7825,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="59.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="38.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="66.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="76.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="77.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="72.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="72.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="73.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="59.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="38.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="76" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="77" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="81" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -7866,34 +7859,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>57</v>
@@ -7908,52 +7901,52 @@
         <v>62</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>49</v>
@@ -7971,22 +7964,22 @@
         <v>65</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -8064,7 +8057,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -8185,7 +8178,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -8218,13 +8211,13 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -8274,13 +8267,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -8352,30 +8345,30 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="O17" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -8414,31 +8407,31 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="O19" s="3" t="str">
         <f>O17</f>
-        <v>text::CS14857574341420824</v>
+        <v>text::CS84947682647382876</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -8477,31 +8470,31 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="O21" s="3" t="str">
         <f>O17</f>
-        <v>text::CS14857574341420824</v>
+        <v>text::CS84947682647382876</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -8791,40 +8784,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="AG7" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="59.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="15" max="16" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="20" max="21" width="19.5703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="23" max="23" width="19.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="32" max="33" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="78.28515625" collapsed="true"/>
+    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="19.5703125" collapsed="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.5703125" collapsed="1"/>
+    <col min="27" max="27" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="78.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -8835,7 +8828,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>23</v>
@@ -8892,7 +8885,7 @@
         <v>21</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>22</v>
@@ -8916,7 +8909,7 @@
         <v>30</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE1" s="6" t="s">
         <v>57</v>
@@ -8931,7 +8924,7 @@
         <v>62</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -8940,13 +8933,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
@@ -8997,7 +8990,7 @@
         <v>48</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>49</v>
@@ -9021,7 +9014,7 @@
         <v>55</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>56</v>
@@ -9036,7 +9029,7 @@
         <v>65</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>205</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -9247,7 +9240,7 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>1</v>
@@ -9262,38 +9255,39 @@
         <v>1</v>
       </c>
       <c r="O8" s="3"/>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="7" t="str">
+        <f>Payments_VTAuth!P8</f>
+        <v>4929999832440567</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="V8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="W8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="V8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="W8" s="7" t="s">
+      <c r="X8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="Z8" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>1</v>
@@ -9491,19 +9485,19 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG13" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="AH13" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>204</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -9521,7 +9515,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>1</v>
@@ -9536,8 +9530,9 @@
         <v>1</v>
       </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="7" t="s">
-        <v>114</v>
+      <c r="P14" s="7" t="str">
+        <f>Payments_VTAuth!P14</f>
+        <v>5171422863865554</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>1</v>
@@ -9549,25 +9544,25 @@
         <v>1</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="Z14" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>1</v>
@@ -9633,7 +9628,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>1</v>
@@ -9649,7 +9644,7 @@
       </c>
       <c r="O16" s="7" t="str">
         <f>Payments_VTAuth!O16</f>
-        <v>4099909958293016</v>
+        <v>5140776277131494</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -9657,22 +9652,22 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="W16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="V16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="W16" s="7" t="s">
+      <c r="X16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Y16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y16" s="7" t="s">
+      <c r="Z16" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>1</v>
@@ -9738,7 +9733,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>1</v>
@@ -9754,7 +9749,7 @@
       </c>
       <c r="O18" s="7" t="str">
         <f>Payments_VTAuth!O18</f>
-        <v>5195189560312002</v>
+        <v>5954806422317864</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -9762,22 +9757,22 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="X18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Y18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y18" s="7" t="s">
+      <c r="Z18" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>1</v>
@@ -10377,43 +10372,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="59.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="22" max="23" width="19.5703125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="25" max="25" width="19.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="34" max="35" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="78.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="40" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="57" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="18" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="19.5703125" collapsed="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19.5703125" collapsed="1"/>
+    <col min="29" max="29" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="78.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -10421,28 +10416,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>57</v>
@@ -10451,15 +10446,17 @@
         <v>62</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="O1" s="6"/>
+        <v>309</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>297</v>
+      </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -10486,25 +10483,25 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>335</v>
+        <v>76</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>348</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>39</v>
@@ -10515,16 +10512,18 @@
       <c r="K2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="O2" s="2"/>
+      <c r="L2" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -10553,7 +10552,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
@@ -10670,7 +10669,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -10871,7 +10870,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>CONCATENATE("text::",Payments_VTSale!J8)</f>
@@ -10999,7 +10998,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="7"/>
@@ -11122,16 +11121,16 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -11283,7 +11282,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>CONCATENATE("text::",I14)</f>
@@ -11297,7 +11296,9 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="O21" s="21" t="s">
+        <v>305</v>
+      </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -11818,50 +11819,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR38"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="AO16" workbookViewId="0">
+      <selection activeCell="AT10" sqref="AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="59.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="21" max="26" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="38.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="26" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="38.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -11872,7 +11873,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>23</v>
@@ -11884,7 +11885,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>32</v>
@@ -11905,61 +11906,61 @@
         <v>34</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF1" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="AG1" s="6" t="s">
         <v>26</v>
@@ -11977,13 +11978,13 @@
         <v>27</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AM1" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AO1" s="6" t="s">
         <v>57</v>
@@ -12004,19 +12005,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>37</v>
@@ -12025,73 +12026,73 @@
         <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>50</v>
@@ -12109,13 +12110,13 @@
         <v>51</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>56</v>
@@ -12383,7 +12384,7 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>1</v>
@@ -12393,13 +12394,13 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="7" t="s">
-        <v>231</v>
+        <v>331</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7" t="s">
@@ -12407,50 +12408,50 @@
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="AE8" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AF8" s="7"/>
       <c r="AG8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AH8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="AL8" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
@@ -12568,7 +12569,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -12780,16 +12781,16 @@
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AQ15" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="AR15" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -12802,12 +12803,12 @@
         <v>1</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>1</v>
@@ -12816,12 +12817,12 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -12838,41 +12839,41 @@
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AD16" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AG16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AH16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="AL16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AM16" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
@@ -13679,43 +13680,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="62.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="20" max="22" width="19.5703125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="31" max="32" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="62" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="22" width="19.5703125" collapsed="1"/>
+    <col min="26" max="26" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -13723,34 +13724,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -13782,34 +13783,34 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -13895,13 +13896,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -15103,35 +15104,35 @@
   <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="62.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="13" max="15" width="19.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="62" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="15" width="19.5703125" collapsed="1"/>
+    <col min="19" max="19" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -15139,13 +15140,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -15177,13 +15178,13 @@
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -15250,10 +15251,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -16233,41 +16234,41 @@
   <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="42.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="56.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="55.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="56.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="55.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -16275,76 +16276,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
@@ -16355,76 +16356,76 @@
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -16470,67 +16471,67 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="P4" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="T4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="S4" s="7" t="s">
+      <c r="V4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="W4" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>1</v>

--- a/testdata/Payments.xlsx
+++ b/testdata/Payments.xlsx
@@ -4,27 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="630" windowWidth="15600" windowHeight="7515" tabRatio="926" firstSheet="4" activeTab="9"/>
+    <workbookView activeTab="9" firstSheet="4" tabRatio="926" windowHeight="7515" windowWidth="15600" xWindow="240" yWindow="630"/>
   </bookViews>
   <sheets>
-    <sheet name="Payments_VTAuth" sheetId="9" r:id="rId1"/>
-    <sheet name="Payments_VTSale" sheetId="15" r:id="rId2"/>
-    <sheet name="Payments_VTCaptureAdjust" sheetId="18" r:id="rId3"/>
-    <sheet name="Payments_VTForceCapture" sheetId="16" r:id="rId4"/>
-    <sheet name="Payments_VTRefund" sheetId="19" r:id="rId5"/>
-    <sheet name="Payments_VTACH" sheetId="17" r:id="rId6"/>
-    <sheet name="Payments_VTHealthCare" sheetId="11" r:id="rId7"/>
-    <sheet name="Payments_VTLevel2" sheetId="13" r:id="rId8"/>
-    <sheet name="Payments_VTLevel3" sheetId="14" r:id="rId9"/>
-    <sheet name="Payments_PrintDownload" sheetId="12" r:id="rId10"/>
-    <sheet name="Payments_Reports" sheetId="10" r:id="rId11"/>
+    <sheet name="Payments_VTAuth" r:id="rId1" sheetId="9"/>
+    <sheet name="Payments_VTSale" r:id="rId2" sheetId="15"/>
+    <sheet name="Payments_VTCaptureAdjust" r:id="rId3" sheetId="18"/>
+    <sheet name="Payments_VTForceCapture" r:id="rId4" sheetId="16"/>
+    <sheet name="Payments_VTRefund" r:id="rId5" sheetId="19"/>
+    <sheet name="Payments_VTACH" r:id="rId6" sheetId="17"/>
+    <sheet name="Payments_VTHealthCare" r:id="rId7" sheetId="11"/>
+    <sheet name="Payments_VTLevel2" r:id="rId8" sheetId="13"/>
+    <sheet name="Payments_VTLevel3" r:id="rId9" sheetId="14"/>
+    <sheet name="Payments_PrintDownload" r:id="rId10" sheetId="12"/>
+    <sheet name="Payments_Reports" r:id="rId11" sheetId="10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="356">
   <si>
     <t>Row Number</t>
   </si>
@@ -1081,12 +1081,25 @@
   </si>
   <si>
     <t>xpath:://td[text()='Status']/../td[2]</t>
+  </si>
+  <si>
+    <t>CS41399714523149380</t>
+  </si>
+  <si>
+    <t>text::CS41399714523149380</t>
+  </si>
+  <si>
+    <t>CS83850286429364188</t>
+  </si>
+  <si>
+    <t>text::CS83850286429364188</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1186,37 +1199,37 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1230,10 +1243,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1391,7 +1404,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1400,13 +1413,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1416,7 +1429,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1425,7 +1438,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1434,7 +1447,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1444,12 +1457,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1480,7 +1493,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1499,7 +1512,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1511,39 +1524,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView topLeftCell="AG1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="22" width="19.5703125" collapsed="1"/>
-    <col min="26" max="26" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="32" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="59.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="20" max="22" width="19.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="31" max="32" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="66.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -3052,14 +3065,14 @@
       <c r="G38" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -3067,37 +3080,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="23" width="19.5703125" collapsed="1"/>
-    <col min="27" max="27" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="49.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="49.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="21" max="23" width="19.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="32" max="33" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -4489,47 +4502,47 @@
       <c r="H38" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="23" width="19.5703125" collapsed="1"/>
-    <col min="27" max="27" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="21" max="23" width="19.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="32" max="33" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -6020,50 +6033,50 @@
       <c r="H38" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView topLeftCell="AK1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="22" width="19.5703125" collapsed="1"/>
-    <col min="26" max="26" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="62.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="38" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="59.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="20" max="22" width="19.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="37" max="38" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="66.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -7816,14 +7829,14 @@
       <c r="G38" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
@@ -7831,27 +7844,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="59.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="38.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="77" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="81" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="72" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="59.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="66.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="76.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="77.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="81.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="72.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -8775,14 +8788,14 @@
       <c r="C38" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView topLeftCell="AG7" workbookViewId="0">
       <selection activeCell="AJ2" sqref="AJ2"/>
@@ -8790,34 +8803,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="19.5703125" collapsed="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.5703125" collapsed="1"/>
-    <col min="27" max="27" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="78.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="59.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="20" max="21" width="19.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="23" max="23" width="19.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="32" max="33" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="78.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -10363,14 +10376,14 @@
       <c r="G38" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
@@ -10378,37 +10391,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="40" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="57" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="19.5703125" collapsed="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19.5703125" collapsed="1"/>
-    <col min="29" max="29" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="35" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="78.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="59.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="57.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="22" max="23" width="19.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="25" max="25" width="19.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="34" max="35" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="78.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -10669,7 +10682,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -10870,7 +10883,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>CONCATENATE("text::",Payments_VTSale!J8)</f>
@@ -11810,14 +11823,14 @@
       <c r="G38" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS38"/>
   <sheetViews>
     <sheetView topLeftCell="AO16" workbookViewId="0">
       <selection activeCell="AT10" sqref="AT10"/>
@@ -11825,44 +11838,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="26" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="38.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="59.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="21" max="26" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -13671,14 +13684,14 @@
       <c r="G38" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
@@ -13686,37 +13699,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="62" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="22" width="19.5703125" collapsed="1"/>
-    <col min="26" max="26" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="32" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="62.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="20" max="22" width="19.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="31" max="32" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -15095,13 +15108,13 @@
       <c r="G38" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -15109,30 +15122,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="62" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="15" width="19.5703125" collapsed="1"/>
-    <col min="19" max="19" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="62.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="13" max="15" width="19.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -16225,13 +16238,13 @@
       <c r="D38" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -16239,36 +16252,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="56.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="55.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="56.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="55.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -17487,6 +17500,6 @@
       <c r="D38" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>